--- a/Technology/Software/Manhattan Associates.xlsx
+++ b/Technology/Software/Manhattan Associates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74BE82-C8EB-2441-B721-90C31D02517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC27674A-44DC-FF4B-8488-361EFBDB8D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,13 +1564,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1587,7 +1584,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1599,9 +1596,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1729,11 +1723,9 @@
     <v>Powered by Refinitiv</v>
     <v>211.81</v>
     <v>107.18</v>
-    <v>1.5106999999999999</v>
-    <v>-3.43</v>
-    <v>-1.7871999999999999E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.5095000000000001</v>
+    <v>2.75</v>
+    <v>1.3878999999999999E-2</v>
     <v>USD</v>
     <v>Manhattan Associates, Inc. is a developer and provider of supply chain commerce solutions. The Company operates through three geographical segments: North and Latin America; Europe, the Middle East and Africa (EMEA); and Asia Pacific (APAC). It is engaged in developing, selling, deploying, servicing, and maintaining software solutions designed to manage supply chains, inventory and omnichannel operations for retailers, wholesalers, manufacturers, logistics providers and other organizations. Its solutions consist of software, services, and hardware, which coordinates people, workflows, assets, events, and tasks across the functions linked in a supply chain from planning through execution. Its supply chain solutions consist of three components: Distribution Management, Transportation Management, and Visibility. Its Omni-Channel Solutions include Enterprise Omnichannel Solutions, Omnichannel Solutions for the Store. Its Inventory Solutions include Inventory Optimization and Planning.</v>
     <v>4500</v>
@@ -1741,25 +1733,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2300 Windy Ridge Parkway Tenth Floor, ATLANTA, GA, 30339 US</v>
-    <v>192.70500000000001</v>
+    <v>203.54</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.862353553122</v>
+    <v>45232.911579385938</v>
     <v>0</v>
-    <v>186.9</v>
-    <v>11623950000</v>
+    <v>198.45</v>
+    <v>12367824992</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
-    <v>192.43</v>
-    <v>71.259500000000003</v>
-    <v>191.92</v>
-    <v>188.49</v>
-    <v>188.49</v>
-    <v>61668800</v>
+    <v>200.79</v>
+    <v>75.947400000000002</v>
+    <v>198.14</v>
+    <v>200.89</v>
+    <v>61565160</v>
     <v>MANH</v>
     <v>MANHATTAN ASSOCIATES, INC. (XNAS:MANH)</v>
-    <v>382569</v>
-    <v>421700</v>
+    <v>443568</v>
+    <v>444672</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1791,8 +1782,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1813,7 +1802,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1830,7 +1818,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1841,16 +1829,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1916,19 +1901,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1973,9 +1952,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1983,9 +1959,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2372,8 +2345,8 @@
   <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J49" sqref="J49"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15675,7 +15648,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15724,7 +15697,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>11623950000</v>
+        <v>12367824992</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>201</v>
@@ -15752,7 +15725,7 @@
       </c>
       <c r="I3" s="42">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6109496239.6277895</v>
+        <v>6123548227.3408594</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
@@ -15790,21 +15763,21 @@
       </c>
       <c r="G4" s="50">
         <f>A5*(1+(5*G3))</f>
-        <v>58458534.106768787</v>
+        <v>58360289.249161288</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>4886520494.9232559</v>
+        <v>4898768421.1475315</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="41" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.7871999999999999E-2</v>
+        <v>1.3878999999999999E-2</v>
       </c>
       <c r="L4" s="40" t="s">
         <v>212</v>
@@ -15819,7 +15792,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>61668800</v>
+        <v>61565160</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>214</v>
@@ -15847,14 +15820,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>5027355494.9232559</v>
+        <v>5039603421.1475315</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>188.49</v>
+        <v>200.89</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>219</v>
@@ -15872,7 +15845,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>12.717669584245076</v>
+        <v>13.531537190371992</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>221</v>
@@ -15900,14 +15873,14 @@
       </c>
       <c r="I6" s="59">
         <f>N25</f>
-        <v>0.10183939584986149</v>
+        <v>0.10166306895468967</v>
       </c>
       <c r="J6" s="51" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="60">
         <f>I5/G4</f>
-        <v>85.998658223986311</v>
+        <v>86.353297524479913</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>225</v>
@@ -15925,14 +15898,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64">
         <f>O20/F12</f>
-        <v>59.886398763523957</v>
+        <v>63.718830458526533</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="66">
         <f>F14/A3</f>
-        <v>1.8152177185896359E-2</v>
+        <v>1.7060396645043344E-2</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>228</v>
@@ -15959,7 +15932,7 @@
       </c>
       <c r="K7" s="73">
         <f>K6/K5-1</f>
-        <v>-0.54374949215350254</v>
+        <v>-0.57014636107083516</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>231</v>
@@ -16264,7 +16237,7 @@
       </c>
       <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -16314,7 +16287,7 @@
       </c>
       <c r="O15" s="96" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5106999999999999</v>
+        <v>1.5095000000000001</v>
       </c>
       <c r="P15" s="45"/>
     </row>
@@ -16369,7 +16342,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10215538500000002</v>
+        <v>0.10195987500000001</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -16444,7 +16417,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>11623950000</v>
+        <v>12367824992</v>
       </c>
       <c r="P20" s="45"/>
     </row>
@@ -16466,7 +16439,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>11636409000</v>
+        <v>12380283992</v>
       </c>
       <c r="P21" s="45"/>
     </row>
@@ -16489,7 +16462,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>1.0706911384775147E-3</v>
+        <v>1.0063581746631066E-3</v>
       </c>
       <c r="P22" s="45"/>
     </row>
@@ -16512,7 +16485,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.99892930886152254</v>
+        <v>0.9989936418253369</v>
       </c>
       <c r="P23" s="45"/>
     </row>
@@ -16552,7 +16525,7 @@
       <c r="M25" s="83"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10183939584986149</v>
+        <v>0.10166306895468967</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="45"/>

--- a/Technology/Software/Manhattan Associates.xlsx
+++ b/Technology/Software/Manhattan Associates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC27674A-44DC-FF4B-8488-361EFBDB8D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AC126D-FB29-EE4C-907F-6AEEA081CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1584,7 +1584,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1721,11 +1721,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>211.81</v>
-    <v>107.18</v>
-    <v>1.5095000000000001</v>
-    <v>2.75</v>
-    <v>1.3878999999999999E-2</v>
+    <v>214.02</v>
+    <v>107.77</v>
+    <v>1.5101</v>
+    <v>0.15</v>
+    <v>7.0860000000000009E-4</v>
     <v>USD</v>
     <v>Manhattan Associates, Inc. is a developer and provider of supply chain commerce solutions. The Company operates through three geographical segments: North and Latin America; Europe, the Middle East and Africa (EMEA); and Asia Pacific (APAC). It is engaged in developing, selling, deploying, servicing, and maintaining software solutions designed to manage supply chains, inventory and omnichannel operations for retailers, wholesalers, manufacturers, logistics providers and other organizations. Its solutions consist of software, services, and hardware, which coordinates people, workflows, assets, events, and tasks across the functions linked in a supply chain from planning through execution. Its supply chain solutions consist of three components: Distribution Management, Transportation Management, and Visibility. Its Omni-Channel Solutions include Enterprise Omnichannel Solutions, Omnichannel Solutions for the Store. Its Inventory Solutions include Inventory Optimization and Planning.</v>
     <v>4500</v>
@@ -1733,24 +1733,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2300 Windy Ridge Parkway Tenth Floor, ATLANTA, GA, 30339 US</v>
-    <v>203.54</v>
+    <v>214.02</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.911579385938</v>
+    <v>45238.991065786722</v>
     <v>0</v>
-    <v>198.45</v>
-    <v>12367824992</v>
+    <v>210.04</v>
+    <v>13041963494</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
-    <v>200.79</v>
-    <v>75.947400000000002</v>
-    <v>198.14</v>
-    <v>200.89</v>
+    <v>212.52</v>
+    <v>80.087100000000007</v>
+    <v>211.69</v>
+    <v>211.84</v>
     <v>61565160</v>
     <v>MANH</v>
     <v>MANHATTAN ASSOCIATES, INC. (XNAS:MANH)</v>
-    <v>443568</v>
-    <v>444672</v>
+    <v>265357</v>
+    <v>469581</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2344,9 +2344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15647,8 +15647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA1A1D-3D3D-2542-8B54-B80A4CF4BD5B}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15697,7 +15697,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>12367824992</v>
+        <v>13041963494</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>201</v>
@@ -15725,7 +15725,7 @@
       </c>
       <c r="I3" s="42">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6123548227.3408594</v>
+        <v>5999456857.0297794</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
@@ -15770,14 +15770,14 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>4898768421.1475315</v>
+        <v>4790632816.063261</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="41" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.3878999999999999E-2</v>
+        <v>7.0860000000000009E-4</v>
       </c>
       <c r="L4" s="40" t="s">
         <v>212</v>
@@ -15820,14 +15820,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>5039603421.1475315</v>
+        <v>4931467816.063261</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>200.89</v>
+        <v>211.84</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>219</v>
@@ -15845,7 +15845,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>13.531537190371992</v>
+        <v>14.269106667396061</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>221</v>
@@ -15873,14 +15873,14 @@
       </c>
       <c r="I6" s="59">
         <f>N25</f>
-        <v>0.10166306895468967</v>
+        <v>0.10324875004308574</v>
       </c>
       <c r="J6" s="51" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="60">
         <f>I5/G4</f>
-        <v>86.353297524479913</v>
+        <v>84.500400520789611</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>225</v>
@@ -15898,14 +15898,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64">
         <f>O20/F12</f>
-        <v>63.718830458526533</v>
+        <v>67.191980906749095</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="66">
         <f>F14/A3</f>
-        <v>1.7060396645043344E-2</v>
+        <v>1.6178545515563761E-2</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>228</v>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="K7" s="73">
         <f>K6/K5-1</f>
-        <v>-0.57014636107083516</v>
+        <v>-0.60111215766243575</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>231</v>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="O14" s="92">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -16287,7 +16287,7 @@
       </c>
       <c r="O15" s="96" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5095000000000001</v>
+        <v>1.5101</v>
       </c>
       <c r="P15" s="45"/>
     </row>
@@ -16342,7 +16342,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10195987500000001</v>
+        <v>0.10353172900000002</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>12367824992</v>
+        <v>13041963494</v>
       </c>
       <c r="P20" s="45"/>
     </row>
@@ -16439,7 +16439,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>12380283992</v>
+        <v>13054422494</v>
       </c>
       <c r="P21" s="45"/>
     </row>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>1.0063581746631066E-3</v>
+        <v>9.5438921221726474E-4</v>
       </c>
       <c r="P22" s="45"/>
     </row>
@@ -16485,7 +16485,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.9989936418253369</v>
+        <v>0.99904561078778276</v>
       </c>
       <c r="P23" s="45"/>
     </row>
@@ -16525,7 +16525,7 @@
       <c r="M25" s="83"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10166306895468967</v>
+        <v>0.10324875004308574</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="45"/>

--- a/Technology/Software/Manhattan Associates.xlsx
+++ b/Technology/Software/Manhattan Associates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AC126D-FB29-EE4C-907F-6AEEA081CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E98164-1668-BA45-A940-275153E871F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1187,24 +1142,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1358,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1288,248 +1454,264 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1567,6 +1749,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1584,7 +1767,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1596,6 +1779,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1721,11 +1905,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>214.02</v>
-    <v>107.77</v>
-    <v>1.5101</v>
-    <v>0.15</v>
-    <v>7.0860000000000009E-4</v>
+    <v>230.61</v>
+    <v>113.425</v>
+    <v>1.4919</v>
+    <v>4.87</v>
+    <v>2.1833999999999999E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Manhattan Associates, Inc. is a developer and provider of supply chain commerce solutions. The Company operates through three geographical segments: North and Latin America; Europe, the Middle East and Africa (EMEA); and Asia Pacific (APAC). It is engaged in developing, selling, deploying, servicing, and maintaining software solutions designed to manage supply chains, inventory and omnichannel operations for retailers, wholesalers, manufacturers, logistics providers and other organizations. Its solutions consist of software, services, and hardware, which coordinates people, workflows, assets, events, and tasks across the functions linked in a supply chain from planning through execution. Its supply chain solutions consist of three components: Distribution Management, Transportation Management, and Visibility. Its Omni-Channel Solutions include Enterprise Omnichannel Solutions, Omnichannel Solutions for the Store. Its Inventory Solutions include Inventory Optimization and Planning.</v>
     <v>4500</v>
@@ -1733,24 +1919,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2300 Windy Ridge Parkway Tenth Floor, ATLANTA, GA, 30339 US</v>
-    <v>214.02</v>
+    <v>228.405</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45238.991065786722</v>
+    <v>45261.90283398125</v>
     <v>0</v>
-    <v>210.04</v>
-    <v>13041963494</v>
+    <v>221.72</v>
+    <v>14031930000</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
-    <v>212.52</v>
-    <v>80.087100000000007</v>
-    <v>211.69</v>
-    <v>211.84</v>
+    <v>222.47</v>
+    <v>84.325100000000006</v>
+    <v>223.05</v>
+    <v>227.92</v>
+    <v>227.92</v>
     <v>61565160</v>
     <v>MANH</v>
     <v>MANHATTAN ASSOCIATES, INC. (XNAS:MANH)</v>
-    <v>265357</v>
-    <v>469581</v>
+    <v>296466</v>
+    <v>442168</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1782,6 +1969,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1802,6 +1991,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1818,7 +2008,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1829,13 +2019,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1901,13 +2094,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1952,6 +2151,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1959,6 +2161,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2344,9 +2549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12554,8 +12759,8 @@
       <c r="N172" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="4" t="s">
-        <v>24</v>
+      <c r="O172" s="4">
+        <v>0</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>24</v>
@@ -15638,1745 +15843,1927 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A19:S33 A191:S195 A9:S11 A15:S16 A13:S13 A37:S95 A130:S142 A144:S188 A97:S104 A96 A106:S128 A105 K105:S105" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A19:S33 A191:S195 A9:S11 A15:S16 A13:S13 A37:S95 A130:S142 A144:S171 A97:S104 A96 A106:S128 A105 K105:S105 A173:S188 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA1A1D-3D3D-2542-8B54-B80A4CF4BD5B}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="e" vm="1">
+    <row r="1" spans="1:18" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-    </row>
-    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" cm="1">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+    </row>
+    <row r="2" spans="1:18" s="121" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>13041963494</v>
-      </c>
-      <c r="B3" s="38" t="s">
+        <v>14031930000</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="49">
         <f>Financials!O8*0.01</f>
         <v>0.53010000000000002</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="49">
         <f>SUM(C11:E11)/3</f>
         <v>7.8848958489874568E-2</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="41">
-        <f>SUM(Financials!K129:N129)/4</f>
-        <v>-1.0411312992084198E-2</v>
-      </c>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="51">
+        <f>AVERAGE(Financials!F129:O129)</f>
+        <v>-2.1064740201799114E-2</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="42">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>5999456857.0297794</v>
-      </c>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="52">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>6094488709.6877375</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="115" t="s">
+      <c r="K3" s="54">
+        <f>Financials!O172/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="37"/>
+      <c r="N3" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="45"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="O3" s="102"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>140835000</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="39">
         <f>Financials!O17*0.01</f>
         <v>0.21110000000000001</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="39">
         <f>SUM(C13:E13)/3</f>
         <v>0.15029305802059945</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="59">
         <f>A5*(1+(5*G3))</f>
-        <v>58360289.249161288</v>
-      </c>
-      <c r="H4" s="51" t="s">
+        <v>55080889.495589025</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="52">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>4790632816.063261</v>
-      </c>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="38">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>4860613201.3809824</v>
+      </c>
+      <c r="J4" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="41" cm="1">
+      <c r="K4" s="60" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.0860000000000009E-4</v>
-      </c>
-      <c r="L4" s="40" t="s">
+        <v>2.1833999999999999E-2</v>
+      </c>
+      <c r="L4" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="117" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="118"/>
-      <c r="P4" s="45"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" cm="1">
+      <c r="O4" s="104"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>61565160</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="53">
-        <f>Financials!O34*0.01</f>
-        <v>0.1721</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="39">
+        <f>F14</f>
+        <v>0.24070021881838075</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="48">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="39">
+        <f>SUM(C16:E16)/3</f>
         <v>0.1051274386366305</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="59">
         <f>Financials!O56</f>
         <v>153294000</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="38">
         <f>I4+G5-G6</f>
-        <v>4931467816.063261</v>
-      </c>
-      <c r="J5" s="49" t="s">
+        <v>5001448201.3809824</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="54" cm="1">
+      <c r="K5" s="63" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>211.84</v>
-      </c>
-      <c r="L5" s="47" t="s">
+        <v>227.92</v>
+      </c>
+      <c r="L5" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="55" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="106">
         <f>Financials!O20</f>
         <v>-3009000</v>
       </c>
-      <c r="P5" s="45"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65">
         <f>O20/F10</f>
-        <v>14.269106667396061</v>
-      </c>
-      <c r="B6" s="47" t="s">
+        <v>15.352221006564552</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="48">
-        <f>Financials!O190</f>
-        <v>0.22212646760972515</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="39">
+        <f>F17</f>
+        <v>0.2527352297592998</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="39">
         <f>Financials!O33/Financials!O126</f>
         <v>0.85577836411609498</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="59">
         <f>Financials!O96+Financials!O105</f>
         <v>12459000</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="60">
         <f>N25</f>
-        <v>0.10324875004308574</v>
-      </c>
-      <c r="J6" s="51" t="s">
+        <v>0.1040468278715842</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="40">
         <f>I5/G4</f>
-        <v>84.500400520789611</v>
-      </c>
-      <c r="L6" s="61" t="s">
+        <v>90.801877877834698</v>
+      </c>
+      <c r="L6" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="62" t="s">
+      <c r="M6" s="37"/>
+      <c r="N6" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="106">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="45"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67">
         <f>O20/F12</f>
-        <v>67.191980906749095</v>
-      </c>
-      <c r="B7" s="65" t="s">
+        <v>63.781500000000001</v>
+      </c>
+      <c r="B7" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="66">
-        <f>F14/A3</f>
-        <v>1.6178545515563761E-2</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="69">
+        <f>F15/A3</f>
+        <v>1.6462453846334751E-2</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="68">
-        <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
-        <v>0.73374670098191896</v>
-      </c>
-      <c r="F7" s="65" t="s">
+      <c r="E7" s="70">
+        <f>E18</f>
+        <v>0.47547381313183734</v>
+      </c>
+      <c r="F7" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="71">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>7.3051890941073006E-2</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="73">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>-0.60111215766243575</v>
-      </c>
-      <c r="L7" s="74" t="s">
+        <v>-0.60160636241736265</v>
+      </c>
+      <c r="L7" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="62" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="106">
         <f>Financials!O105</f>
         <v>12459000</v>
       </c>
-      <c r="P7" s="45"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="76" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="108">
         <f>O5/(O6+O7)</f>
         <v>-0.2415121598844209</v>
       </c>
-      <c r="P8" s="45"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79">
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82">
         <v>2019</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="82">
         <v>2020</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="82">
         <v>2021</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="83">
         <v>2022</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="84">
         <v>2023</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="85">
         <v>2024</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="85">
         <v>2025</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="85">
         <v>2026</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="86">
         <v>2027</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="62" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="106">
         <f>Financials!O25</f>
         <v>36714000</v>
       </c>
-      <c r="P9" s="45"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="88">
         <v>617949000</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="88">
         <v>586372000</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="88">
         <v>663643000</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="89">
         <v>767084000</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="88">
         <v>914000000</v>
       </c>
-      <c r="G10" s="85">
-        <v>1000000000</v>
-      </c>
-      <c r="H10" s="85">
-        <v>1139000000</v>
-      </c>
-      <c r="I10" s="85">
-        <v>1297000000</v>
-      </c>
-      <c r="J10" s="85">
-        <v>1493000000</v>
-      </c>
-      <c r="K10" s="87" t="s">
+      <c r="G10" s="88">
+        <v>1007000000</v>
+      </c>
+      <c r="H10" s="88">
+        <v>1133000000</v>
+      </c>
+      <c r="I10" s="88">
+        <v>1238000000</v>
+      </c>
+      <c r="J10" s="89">
+        <v>1400000000</v>
+      </c>
+      <c r="K10" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="106">
         <f>Financials!O24</f>
         <v>182667000</v>
       </c>
-      <c r="P10" s="45"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89">
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="91"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-5.1099686220060225E-2</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="43">
         <f t="shared" si="0"/>
         <v>0.13177812037409709</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="43">
         <f t="shared" si="0"/>
         <v>0.15586844131558686</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="44">
         <f t="shared" si="0"/>
         <v>0.19152530883188801</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="43">
         <f t="shared" si="0"/>
-        <v>9.4091903719912384E-2</v>
-      </c>
-      <c r="H11" s="89">
+        <v>0.10175054704595188</v>
+      </c>
+      <c r="H11" s="43">
         <f t="shared" si="0"/>
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="I11" s="89">
+        <v>0.12512413108242293</v>
+      </c>
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
-        <v>0.13871817383669893</v>
-      </c>
-      <c r="J11" s="89">
+        <v>9.2674315975286747E-2</v>
+      </c>
+      <c r="J11" s="92">
         <f t="shared" si="0"/>
-        <v>0.15111796453353898</v>
-      </c>
-      <c r="K11" s="91">
+        <v>0.13085621970920847</v>
+      </c>
+      <c r="K11" s="92">
         <f>SUM(F11:J11)/5</f>
-        <v>0.14289067018440765</v>
-      </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="62" t="s">
+        <v>0.12838610452895161</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="92">
+      <c r="O11" s="109">
         <f>O9/O10</f>
         <v>0.20098868432721839</v>
       </c>
-      <c r="P11" s="45"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="88">
         <v>85762000</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="88">
         <v>87240000</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="88">
         <v>110472000</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="88">
         <v>128959000</v>
       </c>
-      <c r="F12" s="86">
-        <v>194100000</v>
-      </c>
-      <c r="G12" s="85">
+      <c r="F12" s="93">
         <v>220000000</v>
       </c>
-      <c r="H12" s="85">
-        <v>260000000</v>
-      </c>
-      <c r="I12" s="85">
-        <v>420000000</v>
-      </c>
-      <c r="J12" s="85">
-        <v>536000000</v>
-      </c>
-      <c r="K12" s="87" t="s">
+      <c r="G12" s="88">
+        <v>229000000</v>
+      </c>
+      <c r="H12" s="88">
+        <v>268000000</v>
+      </c>
+      <c r="I12" s="88">
+        <v>438000000</v>
+      </c>
+      <c r="J12" s="89">
+        <v>540000000</v>
+      </c>
+      <c r="K12" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="93" t="s">
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="94">
+      <c r="O12" s="109">
         <f>O8*(1-O11)</f>
         <v>-0.19297094862022635</v>
       </c>
-      <c r="P12" s="45"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89">
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="91"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.7233739884797483E-2</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="43">
         <f t="shared" si="1"/>
         <v>0.26629986244841808</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="43">
         <f t="shared" si="1"/>
         <v>0.16734557172858278</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="44">
         <f t="shared" si="1"/>
-        <v>0.50512953729479904</v>
-      </c>
-      <c r="G13" s="89">
+        <v>0.70596856365201344</v>
+      </c>
+      <c r="G13" s="43">
         <f t="shared" si="1"/>
-        <v>0.13343637300360633</v>
-      </c>
-      <c r="H13" s="89">
+        <v>4.0909090909091006E-2</v>
+      </c>
+      <c r="H13" s="43">
         <f t="shared" si="1"/>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="I13" s="89">
+        <v>0.17030567685589526</v>
+      </c>
+      <c r="I13" s="43">
         <f t="shared" si="1"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="J13" s="89">
+        <v>0.63432835820895517</v>
+      </c>
+      <c r="J13" s="92">
         <f t="shared" si="1"/>
-        <v>0.2761904761904761</v>
-      </c>
-      <c r="K13" s="91">
+        <v>0.23287671232876717</v>
+      </c>
+      <c r="K13" s="92">
         <f>SUM(F13:J13)/5</f>
-        <v>0.34239183673833573</v>
-      </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="117" t="s">
+        <v>0.35687768039094442</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="118"/>
-      <c r="P13" s="45"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="O13" s="104"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="78">
+        <f>B12/B10</f>
+        <v>0.1387849159072998</v>
+      </c>
+      <c r="C14" s="78">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.14877927322587026</v>
+      </c>
+      <c r="D14" s="78">
+        <f t="shared" si="2"/>
+        <v>0.16646299290431754</v>
+      </c>
+      <c r="E14" s="78">
+        <f t="shared" si="2"/>
+        <v>0.1681158777917412</v>
+      </c>
+      <c r="F14" s="79">
+        <f t="shared" si="2"/>
+        <v>0.24070021881838075</v>
+      </c>
+      <c r="G14" s="78">
+        <f t="shared" si="2"/>
+        <v>0.22740814299900694</v>
+      </c>
+      <c r="H14" s="78">
+        <f t="shared" si="2"/>
+        <v>0.23654015887025595</v>
+      </c>
+      <c r="I14" s="78">
+        <f t="shared" si="2"/>
+        <v>0.35379644588045234</v>
+      </c>
+      <c r="J14" s="80">
+        <f t="shared" si="2"/>
+        <v>0.38571428571428573</v>
+      </c>
+      <c r="K14" s="80"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="109">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B15" s="88">
         <v>131715000</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C15" s="88">
         <v>138155000</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D15" s="88">
         <v>181167000</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E15" s="88">
         <v>173043000</v>
       </c>
-      <c r="F14" s="86">
-        <v>211000000</v>
-      </c>
-      <c r="G14" s="85">
-        <v>241000000</v>
-      </c>
-      <c r="H14" s="85">
-        <v>275000000</v>
-      </c>
-      <c r="I14" s="85">
-        <v>364000000</v>
-      </c>
-      <c r="J14" s="85">
-        <v>458000000</v>
-      </c>
-      <c r="K14" s="87" t="s">
+      <c r="F15" s="93">
+        <v>231000000</v>
+      </c>
+      <c r="G15" s="88">
+        <v>237000000</v>
+      </c>
+      <c r="H15" s="88">
+        <v>280000000</v>
+      </c>
+      <c r="I15" s="88">
+        <v>367000000</v>
+      </c>
+      <c r="J15" s="89">
+        <v>470000000</v>
+      </c>
+      <c r="K15" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="92">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="45"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="110" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.4919</v>
+      </c>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="95"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>4.8893444178719214E-2</v>
       </c>
-      <c r="D15" s="89">
-        <f t="shared" si="2"/>
+      <c r="D16" s="43">
+        <f t="shared" si="3"/>
         <v>0.31133147551662987</v>
       </c>
-      <c r="E15" s="89">
-        <f t="shared" si="2"/>
+      <c r="E16" s="43">
+        <f t="shared" si="3"/>
         <v>-4.4842603785457569E-2</v>
       </c>
-      <c r="F15" s="90">
-        <f t="shared" si="2"/>
-        <v>0.21935010373144248</v>
-      </c>
-      <c r="G15" s="89">
-        <f t="shared" si="2"/>
-        <v>0.14218009478672977</v>
-      </c>
-      <c r="H15" s="89">
-        <f t="shared" si="2"/>
-        <v>0.1410788381742738</v>
-      </c>
-      <c r="I15" s="89">
-        <f t="shared" si="2"/>
-        <v>0.32363636363636372</v>
-      </c>
-      <c r="J15" s="89">
-        <f t="shared" si="2"/>
-        <v>0.25824175824175821</v>
-      </c>
-      <c r="K15" s="91">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.2168974317141136</v>
-      </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="96" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5101</v>
-      </c>
-      <c r="P15" s="45"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="F16" s="44">
+        <f t="shared" si="3"/>
+        <v>0.33492831261593947</v>
+      </c>
+      <c r="G16" s="43">
+        <f t="shared" si="3"/>
+        <v>2.5974025974025983E-2</v>
+      </c>
+      <c r="H16" s="43">
+        <f t="shared" si="3"/>
+        <v>0.18143459915611815</v>
+      </c>
+      <c r="I16" s="43">
+        <f t="shared" si="3"/>
+        <v>0.31071428571428572</v>
+      </c>
+      <c r="J16" s="92">
+        <f t="shared" si="3"/>
+        <v>0.28065395095367851</v>
+      </c>
+      <c r="K16" s="92">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.22674103488280956</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="109">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="78">
+        <f>B15/B10</f>
+        <v>0.21314865789895282</v>
+      </c>
+      <c r="C17" s="78">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.23560981765841479</v>
+      </c>
+      <c r="D17" s="78">
+        <f t="shared" si="4"/>
+        <v>0.27298863997661393</v>
+      </c>
+      <c r="E17" s="80">
+        <f t="shared" si="4"/>
+        <v>0.22558546391268752</v>
+      </c>
+      <c r="F17" s="78">
+        <f t="shared" si="4"/>
+        <v>0.2527352297592998</v>
+      </c>
+      <c r="G17" s="78">
+        <f t="shared" si="4"/>
+        <v>0.23535253227408143</v>
+      </c>
+      <c r="H17" s="78">
+        <f t="shared" si="4"/>
+        <v>0.2471315092674316</v>
+      </c>
+      <c r="I17" s="78">
+        <f t="shared" si="4"/>
+        <v>0.29644588045234249</v>
+      </c>
+      <c r="J17" s="80">
+        <f t="shared" si="4"/>
+        <v>0.33571428571428569</v>
+      </c>
+      <c r="K17" s="80"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.104310551</v>
+      </c>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B18" s="97">
         <v>0.49768738479856206</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C18" s="97">
         <v>0.34670402042635973</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D18" s="97">
         <v>0.36796706367032989</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E18" s="97">
         <v>0.47547381313183734</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="92">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="103">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10353172900000002</v>
-      </c>
-      <c r="P17" s="45"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="117" t="s">
+      <c r="F18" s="98"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="118"/>
-      <c r="P18" s="45"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="119" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1998</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="62" t="s">
+      <c r="O18" s="104"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="113">
         <f>O6+O7</f>
         <v>12459000</v>
       </c>
-      <c r="P19" s="45"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="113" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>14031930000</v>
+      </c>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="113">
+        <f>O19+O20</f>
+        <v>14044389000</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123" cm="1">
+        <f t="array" ref="C22">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1998</v>
+      </c>
+      <c r="D22" s="123"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="O22" s="114">
+        <f>(O19/O21)</f>
+        <v>8.8711584391460536E-4</v>
+      </c>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="str" cm="1">
+        <f t="array" ref="A23">_FV(A1,"Description")</f>
         <v>Manhattan Associates, Inc. is a developer and provider of supply chain commerce solutions. The Company operates through three geographical segments: North and Latin America; Europe, the Middle East and Africa (EMEA); and Asia Pacific (APAC). It is engaged in developing, selling, deploying, servicing, and maintaining software solutions designed to manage supply chains, inventory and omnichannel operations for retailers, wholesalers, manufacturers, logistics providers and other organizations. Its solutions consist of software, services, and hardware, which coordinates people, workflows, assets, events, and tasks across the functions linked in a supply chain from planning through execution. Its supply chain solutions consist of three components: Distribution Management, Transportation Management, and Visibility. Its Omni-Channel Solutions include Enterprise Omnichannel Solutions, Omnichannel Solutions for the Store. Its Inventory Solutions include Inventory Optimization and Planning.</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="105" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>13041963494</v>
-      </c>
-      <c r="P20" s="45"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="105">
-        <f>O19+O20</f>
-        <v>13054422494</v>
-      </c>
-      <c r="P21" s="45"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="O22" s="106">
-        <f>(O19/O21)</f>
-        <v>9.5438921221726474E-4</v>
-      </c>
-      <c r="P22" s="45"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="102" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="107">
+      <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.99904561078778276</v>
-      </c>
-      <c r="P23" s="45"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="109" t="s">
+        <v>0.99911288415608535</v>
+      </c>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="110"/>
-      <c r="P24" s="45"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="111">
+      <c r="O24" s="117"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10324875004308574</v>
-      </c>
-      <c r="O25" s="112"/>
-      <c r="P25" s="45"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
+        <v>0.1040468278715842</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="45"/>
-      <c r="P83" s="45"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="45"/>
-      <c r="P85" s="45"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="45"/>
-      <c r="P91" s="45"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="45"/>
-      <c r="P93" s="45"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="45"/>
-      <c r="P98" s="45"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="45"/>
-      <c r="P99" s="45"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="45"/>
-      <c r="P107" s="45"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="45"/>
-      <c r="P108" s="45"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="37"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="45"/>
-      <c r="P110" s="45"/>
+      <c r="O110" s="37"/>
+      <c r="P110" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17384,8 +17771,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:MANH/explorer/revenue_proj/" xr:uid="{68BE05DC-F3B9-8949-8CCD-826D3855B52F}"/>

--- a/Technology/Software/Manhattan Associates.xlsx
+++ b/Technology/Software/Manhattan Associates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E98164-1668-BA45-A940-275153E871F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5297A4-E292-B84B-BB29-87C5270C7D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,9 +1479,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1644,18 +1641,6 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1707,11 +1692,26 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1746,8 +1746,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Charles Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1767,7 +1769,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1780,6 +1782,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1907,9 +1911,9 @@
     <v>Powered by Refinitiv</v>
     <v>230.61</v>
     <v>113.425</v>
-    <v>1.4919</v>
-    <v>4.87</v>
-    <v>2.1833999999999999E-2</v>
+    <v>1.4931000000000001</v>
+    <v>-0.88</v>
+    <v>-3.9529999999999999E-3</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -1919,25 +1923,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2300 Windy Ridge Parkway Tenth Floor, ATLANTA, GA, 30339 US</v>
-    <v>228.405</v>
+    <v>223.81</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.90283398125</v>
+    <v>45268.895323159377</v>
     <v>0</v>
-    <v>221.72</v>
-    <v>14031930000</v>
+    <v>221.3</v>
+    <v>13705630000</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
     <v>MANHATTAN ASSOCIATES, INC.</v>
-    <v>222.47</v>
-    <v>84.325100000000006</v>
-    <v>223.05</v>
-    <v>227.92</v>
-    <v>227.92</v>
+    <v>221.85</v>
+    <v>84.162499999999994</v>
+    <v>222.62</v>
+    <v>221.74</v>
+    <v>221.74</v>
     <v>61565160</v>
     <v>MANH</v>
     <v>MANHATTAN ASSOCIATES, INC. (XNAS:MANH)</v>
-    <v>296466</v>
-    <v>442168</v>
+    <v>485828</v>
+    <v>403988</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2549,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
@@ -15853,7 +15857,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15861,196 +15865,196 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="e" vm="1">
+    <row r="1" spans="1:18" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-    </row>
-    <row r="2" spans="1:18" s="121" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:18" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" cm="1">
+      <c r="A3" s="46" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>14031930000</v>
-      </c>
-      <c r="B3" s="48" t="s">
+        <v>13705630000</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f>Financials!O8*0.01</f>
         <v>0.53010000000000002</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f>SUM(C11:E11)/3</f>
         <v>7.8848958489874568E-2</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="51">
-        <f>AVERAGE(Financials!F129:O129)</f>
-        <v>-2.1064740201799114E-2</v>
-      </c>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="50">
+        <f>AVERAGE(Financials!J129:O129)</f>
+        <v>-1.5512588359925139E-2</v>
+      </c>
+      <c r="H3" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="51">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6094488709.6877375</v>
-      </c>
-      <c r="J3" s="53" t="s">
+        <v>6034771596.5107708</v>
+      </c>
+      <c r="J3" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="53">
         <f>Financials!O172/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>250</v>
       </c>
       <c r="M3" s="37"/>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="102"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="A4" s="55">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>140835000</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="39">
         <f>Financials!O17*0.01</f>
         <v>0.21110000000000001</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="39">
         <f>SUM(C13:E13)/3</f>
         <v>0.15029305802059945</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="58">
         <f>A5*(1+(5*G3))</f>
-        <v>55080889.495589025</v>
-      </c>
-      <c r="H4" s="58" t="s">
+        <v>56789985.078035355</v>
+      </c>
+      <c r="H4" s="57" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="38">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>4860613201.3809824</v>
-      </c>
-      <c r="J4" s="58" t="s">
+        <v>4808626728.2611132</v>
+      </c>
+      <c r="J4" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="60" cm="1">
+      <c r="K4" s="59" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.1833999999999999E-2</v>
-      </c>
-      <c r="L4" s="61" t="s">
+        <v>-3.9529999999999999E-3</v>
+      </c>
+      <c r="L4" s="60" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="37"/>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="104"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" cm="1">
+      <c r="A5" s="55" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>61565160</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>214</v>
       </c>
       <c r="C5" s="39">
         <f>F14</f>
         <v>0.24070021881838075</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="61" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="39">
         <f>SUM(C16:E16)/3</f>
         <v>0.1051274386366305</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="58">
         <f>Financials!O56</f>
         <v>153294000</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="57" t="s">
         <v>217</v>
       </c>
       <c r="I5" s="38">
         <f>I4+G5-G6</f>
-        <v>5001448201.3809824</v>
-      </c>
-      <c r="J5" s="58" t="s">
+        <v>4949461728.2611132</v>
+      </c>
+      <c r="J5" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="63" cm="1">
+      <c r="K5" s="62" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>227.92</v>
-      </c>
-      <c r="L5" s="64" t="s">
+        <v>221.74</v>
+      </c>
+      <c r="L5" s="63" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="37"/>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="106">
+      <c r="O5" s="101">
         <f>Financials!O20</f>
         <v>-3009000</v>
       </c>
@@ -16059,53 +16063,53 @@
       <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <f>O20/F10</f>
-        <v>15.352221006564552</v>
-      </c>
-      <c r="B6" s="57" t="s">
+        <v>14.995218818380744</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="39">
         <f>F17</f>
         <v>0.2527352297592998</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="39">
         <f>Financials!O33/Financials!O126</f>
         <v>0.85577836411609498</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="58">
         <f>Financials!O96+Financials!O105</f>
         <v>12459000</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="59">
         <f>N25</f>
-        <v>0.1040468278715842</v>
-      </c>
-      <c r="J6" s="58" t="s">
+        <v>0.1048290361607955</v>
+      </c>
+      <c r="J6" s="57" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="40">
         <f>I5/G4</f>
-        <v>90.801877877834698</v>
-      </c>
-      <c r="L6" s="66" t="s">
+        <v>87.153777579973607</v>
+      </c>
+      <c r="L6" s="65" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="37"/>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="106">
+      <c r="O6" s="101">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
@@ -16114,52 +16118,52 @@
       <c r="R6" s="37"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>63.781500000000001</v>
-      </c>
-      <c r="B7" s="68" t="s">
+        <v>62.298318181818182</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="68">
         <f>F15/A3</f>
-        <v>1.6462453846334751E-2</v>
-      </c>
-      <c r="D7" s="68" t="s">
+        <v>1.685438757649229E-2</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="69">
         <f>E18</f>
         <v>0.47547381313183734</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="70">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>7.3051890941073006E-2</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="72">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>-0.60160636241736265</v>
-      </c>
-      <c r="L7" s="76" t="s">
+        <v>-0.60695509344288978</v>
+      </c>
+      <c r="L7" s="75" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="37"/>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="106">
+      <c r="O7" s="101">
         <f>Financials!O105</f>
         <v>12459000</v>
       </c>
@@ -16181,10 +16185,10 @@
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="108">
+      <c r="O8" s="103">
         <f>O5/(O6+O7)</f>
         <v>-0.2415121598844209</v>
       </c>
@@ -16193,41 +16197,41 @@
       <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81">
         <v>2019</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="81">
         <v>2020</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="81">
         <v>2021</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="82">
         <v>2022</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="83">
         <v>2023</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="84">
         <v>2024</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="84">
         <v>2025</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="84">
         <v>2026</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="85">
         <v>2027</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="106">
+      <c r="O9" s="101">
         <f>Financials!O25</f>
         <v>36714000</v>
       </c>
@@ -16236,43 +16240,43 @@
       <c r="R9" s="37"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="87">
         <v>617949000</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="87">
         <v>586372000</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="87">
         <v>663643000</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="88">
         <v>767084000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="87">
         <v>914000000</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="87">
         <v>1007000000</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="87">
         <v>1133000000</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="87">
         <v>1238000000</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="88">
         <v>1400000000</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="105" t="s">
+      <c r="N10" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="106">
+      <c r="O10" s="101">
         <f>Financials!O24</f>
         <v>182667000</v>
       </c>
@@ -16281,7 +16285,7 @@
       <c r="R10" s="37"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16311,20 +16315,20 @@
         <f t="shared" si="0"/>
         <v>9.2674315975286747E-2</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="91">
         <f t="shared" si="0"/>
         <v>0.13085621970920847</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="91">
         <f>SUM(F11:J11)/5</f>
         <v>0.12838610452895161</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="109">
+      <c r="O11" s="104">
         <f>O9/O10</f>
         <v>0.20098868432721839</v>
       </c>
@@ -16333,45 +16337,45 @@
       <c r="R11" s="37"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="87">
         <v>85762000</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="87">
         <v>87240000</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="87">
         <v>110472000</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <v>128959000</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="92">
         <v>220000000</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="87">
         <v>229000000</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="87">
         <v>268000000</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="87">
         <v>438000000</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="88">
         <v>540000000</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="K12" s="93" t="s">
         <v>238</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
-      <c r="N12" s="105" t="s">
+      <c r="N12" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="109">
+      <c r="O12" s="104">
         <f>O8*(1-O11)</f>
         <v>-0.19297094862022635</v>
       </c>
@@ -16380,7 +16384,7 @@
       <c r="R12" s="37"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16410,127 +16414,127 @@
         <f t="shared" si="1"/>
         <v>0.63432835820895517</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="91">
         <f t="shared" si="1"/>
         <v>0.23287671232876717</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K13" s="91">
         <f>SUM(F13:J13)/5</f>
         <v>0.35687768039094442</v>
       </c>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="104"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="77">
         <f>B12/B10</f>
         <v>0.1387849159072998</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="77">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>0.14877927322587026</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="77">
         <f t="shared" si="2"/>
         <v>0.16646299290431754</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="77">
         <f t="shared" si="2"/>
         <v>0.1681158777917412</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="78">
         <f t="shared" si="2"/>
         <v>0.24070021881838075</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="77">
         <f t="shared" si="2"/>
         <v>0.22740814299900694</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="77">
         <f t="shared" si="2"/>
         <v>0.23654015887025595</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="77">
         <f t="shared" si="2"/>
         <v>0.35379644588045234</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="79">
         <f t="shared" si="2"/>
         <v>0.38571428571428573</v>
       </c>
-      <c r="K14" s="80"/>
+      <c r="K14" s="79"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="109">
+      <c r="O14" s="104">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="87">
         <v>131715000</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="87">
         <v>138155000</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="87">
         <v>181167000</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <v>173043000</v>
       </c>
-      <c r="F15" s="93">
+      <c r="F15" s="92">
         <v>231000000</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="87">
         <v>237000000</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="87">
         <v>280000000</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="87">
         <v>367000000</v>
       </c>
-      <c r="J15" s="89">
+      <c r="J15" s="88">
         <v>470000000</v>
       </c>
-      <c r="K15" s="94" t="s">
+      <c r="K15" s="93" t="s">
         <v>241</v>
       </c>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
-      <c r="N15" s="105" t="s">
+      <c r="N15" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="110" cm="1">
+      <c r="O15" s="105" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.4919</v>
+        <v>1.4931000000000001</v>
       </c>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16560,20 +16564,20 @@
         <f t="shared" si="3"/>
         <v>0.31071428571428572</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="91">
         <f t="shared" si="3"/>
         <v>0.28065395095367851</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="91">
         <f>SUM(F16:J16)/5</f>
         <v>0.22674103488280956</v>
       </c>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
-      <c r="N16" s="105" t="s">
+      <c r="N16" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="109">
+      <c r="O16" s="104">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="37"/>
@@ -16581,87 +16585,87 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="77">
         <f>B15/B10</f>
         <v>0.21314865789895282</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="77">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.23560981765841479</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="77">
         <f t="shared" si="4"/>
         <v>0.27298863997661393</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="79">
         <f t="shared" si="4"/>
         <v>0.22558546391268752</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="77">
         <f t="shared" si="4"/>
         <v>0.2527352297592998</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="77">
         <f t="shared" si="4"/>
         <v>0.23535253227408143</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="77">
         <f t="shared" si="4"/>
         <v>0.2471315092674316</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="77">
         <f t="shared" si="4"/>
         <v>0.29644588045234249</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="79">
         <f t="shared" si="4"/>
         <v>0.33571428571428569</v>
       </c>
-      <c r="K17" s="80"/>
+      <c r="K17" s="79"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
-      <c r="N17" s="111" t="s">
+      <c r="N17" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.104310551</v>
+        <v>0.10509974900000002</v>
       </c>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="97">
+      <c r="B18" s="96">
         <v>0.49768738479856206</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="96">
         <v>0.34670402042635973</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="96">
         <v>0.36796706367032989</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="96">
         <v>0.47547381313183734</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
-      <c r="N18" s="103" t="s">
+      <c r="N18" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="104"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
@@ -16680,10 +16684,10 @@
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
-      <c r="N19" s="105" t="s">
+      <c r="N19" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="113">
+      <c r="O19" s="108">
         <f>O6+O7</f>
         <v>12459000</v>
       </c>
@@ -16705,12 +16709,12 @@
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
-      <c r="N20" s="105" t="s">
+      <c r="N20" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="113" cm="1">
+      <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>14031930000</v>
+        <v>13705630000</v>
       </c>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
@@ -16729,28 +16733,28 @@
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="M21" s="42"/>
-      <c r="N21" s="105" t="s">
+      <c r="N21" s="100" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="113">
+      <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>14044389000</v>
+        <v>13718089000</v>
       </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122" t="str" cm="1">
+      <c r="A22" s="121" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123" cm="1">
+      <c r="B22" s="121"/>
+      <c r="C22" s="122" cm="1">
         <f t="array" ref="C22">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1998</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="45"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -16760,26 +16764,26 @@
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
-      <c r="N22" s="107" t="s">
+      <c r="N22" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="114">
+      <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>8.8711584391460536E-4</v>
+        <v>9.0821688064569341E-4</v>
       </c>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="str" cm="1">
+      <c r="A23" s="123" t="str" cm="1">
         <f t="array" ref="A23">_FV(A1,"Description")</f>
         <v>Manhattan Associates, Inc. is a developer and provider of supply chain commerce solutions. The Company operates through three geographical segments: North and Latin America; Europe, the Middle East and Africa (EMEA); and Asia Pacific (APAC). It is engaged in developing, selling, deploying, servicing, and maintaining software solutions designed to manage supply chains, inventory and omnichannel operations for retailers, wholesalers, manufacturers, logistics providers and other organizations. Its solutions consist of software, services, and hardware, which coordinates people, workflows, assets, events, and tasks across the functions linked in a supply chain from planning through execution. Its supply chain solutions consist of three components: Distribution Management, Transportation Management, and Visibility. Its Omni-Channel Solutions include Enterprise Omnichannel Solutions, Omnichannel Solutions for the Store. Its Inventory Solutions include Inventory Optimization and Planning.</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
@@ -16788,23 +16792,23 @@
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
-      <c r="N23" s="111" t="s">
+      <c r="N23" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="115">
+      <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.99911288415608535</v>
+        <v>0.99909178311935432</v>
       </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
@@ -16813,20 +16817,20 @@
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
-      <c r="N24" s="116" t="s">
+      <c r="N24" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="112"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
@@ -16835,21 +16839,21 @@
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
-      <c r="N25" s="118">
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.1040468278715842</v>
-      </c>
-      <c r="O25" s="119"/>
+        <v>0.1048290361607955</v>
+      </c>
+      <c r="O25" s="114"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
@@ -16865,11 +16869,11 @@
       <c r="R26" s="37"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
@@ -16885,11 +16889,11 @@
       <c r="R27" s="37"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
@@ -16905,11 +16909,11 @@
       <c r="R28" s="37"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
@@ -16925,11 +16929,11 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
